--- a/natmiOut/OldD7/LR-pairs_lrc2p/App-Ncstn.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/App-Ncstn.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H2">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.6574505661774</v>
+        <v>20.02757633333333</v>
       </c>
       <c r="N2">
-        <v>19.6574505661774</v>
+        <v>60.082729</v>
       </c>
       <c r="O2">
-        <v>0.2083810887189987</v>
+        <v>0.200201311135073</v>
       </c>
       <c r="P2">
-        <v>0.2083810887189987</v>
+        <v>0.200201311135073</v>
       </c>
       <c r="Q2">
-        <v>2024.773959490725</v>
+        <v>2071.402918939593</v>
       </c>
       <c r="R2">
-        <v>2024.773959490725</v>
+        <v>18642.62627045634</v>
       </c>
       <c r="S2">
-        <v>0.05356235135742072</v>
+        <v>0.04976064219484416</v>
       </c>
       <c r="T2">
-        <v>0.05356235135742072</v>
+        <v>0.04976064219484415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H3">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I3">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J3">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.2867864209123</v>
+        <v>33.29907966666667</v>
       </c>
       <c r="N3">
-        <v>33.2867864209123</v>
+        <v>99.89723900000001</v>
       </c>
       <c r="O3">
-        <v>0.352860447034833</v>
+        <v>0.3328670078646686</v>
       </c>
       <c r="P3">
-        <v>0.352860447034833</v>
+        <v>0.3328670078646686</v>
       </c>
       <c r="Q3">
-        <v>3428.63476183214</v>
+        <v>3444.041838688888</v>
       </c>
       <c r="R3">
-        <v>3428.63476183214</v>
+        <v>30996.37654819999</v>
       </c>
       <c r="S3">
-        <v>0.0906993785299918</v>
+        <v>0.08273510289673813</v>
       </c>
       <c r="T3">
-        <v>0.0906993785299918</v>
+        <v>0.08273510289673811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H4">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I4">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J4">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.6562598348387</v>
+        <v>33.93321599999999</v>
       </c>
       <c r="N4">
-        <v>29.6562598348387</v>
+        <v>101.799648</v>
       </c>
       <c r="O4">
-        <v>0.3143746281295587</v>
+        <v>0.3392060138062123</v>
       </c>
       <c r="P4">
-        <v>0.3143746281295587</v>
+        <v>0.3392060138062122</v>
       </c>
       <c r="Q4">
-        <v>3054.680079053046</v>
+        <v>3509.62899861328</v>
       </c>
       <c r="R4">
-        <v>3054.680079053046</v>
+        <v>31586.66098751952</v>
       </c>
       <c r="S4">
-        <v>0.08080696954434652</v>
+        <v>0.08431068202126908</v>
       </c>
       <c r="T4">
-        <v>0.08080696954434652</v>
+        <v>0.08431068202126905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H5">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I5">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J5">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.7336420724384</v>
+        <v>12.77731666666667</v>
       </c>
       <c r="N5">
-        <v>11.7336420724384</v>
+        <v>38.33195</v>
       </c>
       <c r="O5">
-        <v>0.1243838361166095</v>
+        <v>0.1277256671940461</v>
       </c>
       <c r="P5">
-        <v>0.1243838361166095</v>
+        <v>0.1277256671940461</v>
       </c>
       <c r="Q5">
-        <v>1208.598889173147</v>
+        <v>1321.526409338806</v>
       </c>
       <c r="R5">
-        <v>1208.598889173147</v>
+        <v>11893.73768404925</v>
       </c>
       <c r="S5">
-        <v>0.03197166678712268</v>
+        <v>0.03174660139989075</v>
       </c>
       <c r="T5">
-        <v>0.03197166678712268</v>
+        <v>0.03174660139989074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H6">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I6">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J6">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.6574505661774</v>
+        <v>20.02757633333333</v>
       </c>
       <c r="N6">
-        <v>19.6574505661774</v>
+        <v>60.082729</v>
       </c>
       <c r="O6">
-        <v>0.2083810887189987</v>
+        <v>0.200201311135073</v>
       </c>
       <c r="P6">
-        <v>0.2083810887189987</v>
+        <v>0.200201311135073</v>
       </c>
       <c r="Q6">
-        <v>4233.054060117258</v>
+        <v>4328.570867786977</v>
       </c>
       <c r="R6">
-        <v>4233.054060117258</v>
+        <v>38957.13781008279</v>
       </c>
       <c r="S6">
-        <v>0.1119790818230322</v>
+        <v>0.1039838576056652</v>
       </c>
       <c r="T6">
-        <v>0.1119790818230322</v>
+        <v>0.1039838576056652</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H7">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I7">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J7">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.2867864209123</v>
+        <v>33.29907966666667</v>
       </c>
       <c r="N7">
-        <v>33.2867864209123</v>
+        <v>99.89723900000001</v>
       </c>
       <c r="O7">
-        <v>0.352860447034833</v>
+        <v>0.3328670078646686</v>
       </c>
       <c r="P7">
-        <v>0.352860447034833</v>
+        <v>0.3328670078646686</v>
       </c>
       <c r="Q7">
-        <v>7168.008177506981</v>
+        <v>7196.948036560608</v>
       </c>
       <c r="R7">
-        <v>7168.008177506981</v>
+        <v>64772.53232904547</v>
       </c>
       <c r="S7">
-        <v>0.189618881029595</v>
+        <v>0.1728899543723306</v>
       </c>
       <c r="T7">
-        <v>0.189618881029595</v>
+        <v>0.1728899543723305</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H8">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I8">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J8">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.6562598348387</v>
+        <v>33.93321599999999</v>
       </c>
       <c r="N8">
-        <v>29.6562598348387</v>
+        <v>101.799648</v>
       </c>
       <c r="O8">
-        <v>0.3143746281295587</v>
+        <v>0.3392060138062123</v>
       </c>
       <c r="P8">
-        <v>0.3143746281295587</v>
+        <v>0.3392060138062122</v>
       </c>
       <c r="Q8">
-        <v>6386.207137041182</v>
+        <v>7334.004264083423</v>
       </c>
       <c r="R8">
-        <v>6386.207137041182</v>
+        <v>66006.0383767508</v>
       </c>
       <c r="S8">
-        <v>0.1689375097462747</v>
+        <v>0.1761824117865691</v>
       </c>
       <c r="T8">
-        <v>0.1689375097462747</v>
+        <v>0.176182411786569</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H9">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I9">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J9">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.7336420724384</v>
+        <v>12.77731666666667</v>
       </c>
       <c r="N9">
-        <v>11.7336420724384</v>
+        <v>38.33195</v>
       </c>
       <c r="O9">
-        <v>0.1243838361166095</v>
+        <v>0.1277256671940461</v>
       </c>
       <c r="P9">
-        <v>0.1243838361166095</v>
+        <v>0.1277256671940461</v>
       </c>
       <c r="Q9">
-        <v>2526.733619269975</v>
+        <v>2761.56833814035</v>
       </c>
       <c r="R9">
-        <v>2526.733619269975</v>
+        <v>24854.11504326315</v>
       </c>
       <c r="S9">
-        <v>0.06684093958615811</v>
+        <v>0.06634026278246245</v>
       </c>
       <c r="T9">
-        <v>0.06684093958615811</v>
+        <v>0.06634026278246243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H10">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I10">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J10">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.6574505661774</v>
+        <v>20.02757633333333</v>
       </c>
       <c r="N10">
-        <v>19.6574505661774</v>
+        <v>60.082729</v>
       </c>
       <c r="O10">
-        <v>0.2083810887189987</v>
+        <v>0.200201311135073</v>
       </c>
       <c r="P10">
-        <v>0.2083810887189987</v>
+        <v>0.200201311135073</v>
       </c>
       <c r="Q10">
-        <v>1172.652322568797</v>
+        <v>1434.121167463308</v>
       </c>
       <c r="R10">
-        <v>1172.652322568797</v>
+        <v>12907.09050716978</v>
       </c>
       <c r="S10">
-        <v>0.0310207544042711</v>
+        <v>0.03445142884838957</v>
       </c>
       <c r="T10">
-        <v>0.0310207544042711</v>
+        <v>0.03445142884838957</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H11">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I11">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J11">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>33.2867864209123</v>
+        <v>33.29907966666667</v>
       </c>
       <c r="N11">
-        <v>33.2867864209123</v>
+        <v>99.89723900000001</v>
       </c>
       <c r="O11">
-        <v>0.352860447034833</v>
+        <v>0.3328670078646686</v>
       </c>
       <c r="P11">
-        <v>0.352860447034833</v>
+        <v>0.3328670078646686</v>
       </c>
       <c r="Q11">
-        <v>1985.701415141589</v>
+        <v>2384.458019891892</v>
       </c>
       <c r="R11">
-        <v>1985.701415141589</v>
+        <v>21460.12217902703</v>
       </c>
       <c r="S11">
-        <v>0.05252874593245603</v>
+        <v>0.05728106360746477</v>
       </c>
       <c r="T11">
-        <v>0.05252874593245603</v>
+        <v>0.05728106360746477</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H12">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I12">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J12">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.6562598348387</v>
+        <v>33.93321599999999</v>
       </c>
       <c r="N12">
-        <v>29.6562598348387</v>
+        <v>101.799648</v>
       </c>
       <c r="O12">
-        <v>0.3143746281295587</v>
+        <v>0.3392060138062123</v>
       </c>
       <c r="P12">
-        <v>0.3143746281295587</v>
+        <v>0.3392060138062122</v>
       </c>
       <c r="Q12">
-        <v>1769.124732474908</v>
+        <v>2429.8668264072</v>
       </c>
       <c r="R12">
-        <v>1769.124732474908</v>
+        <v>21868.8014376648</v>
       </c>
       <c r="S12">
-        <v>0.04679953536134857</v>
+        <v>0.05837190467601935</v>
       </c>
       <c r="T12">
-        <v>0.04679953536134857</v>
+        <v>0.05837190467601935</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H13">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I13">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J13">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.7336420724384</v>
+        <v>12.77731666666667</v>
       </c>
       <c r="N13">
-        <v>11.7336420724384</v>
+        <v>38.33195</v>
       </c>
       <c r="O13">
-        <v>0.1243838361166095</v>
+        <v>0.1277256671940461</v>
       </c>
       <c r="P13">
-        <v>0.1243838361166095</v>
+        <v>0.1277256671940461</v>
       </c>
       <c r="Q13">
-        <v>699.9627231473444</v>
+        <v>914.9494671779166</v>
       </c>
       <c r="R13">
-        <v>699.9627231473444</v>
+        <v>8234.545204601251</v>
       </c>
       <c r="S13">
-        <v>0.01851646162208893</v>
+        <v>0.02197953505149586</v>
       </c>
       <c r="T13">
-        <v>0.01851646162208893</v>
+        <v>0.02197953505149585</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H14">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I14">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J14">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.6574505661774</v>
+        <v>20.02757633333333</v>
       </c>
       <c r="N14">
-        <v>19.6574505661774</v>
+        <v>60.082729</v>
       </c>
       <c r="O14">
-        <v>0.2083810887189987</v>
+        <v>0.200201311135073</v>
       </c>
       <c r="P14">
-        <v>0.2083810887189987</v>
+        <v>0.200201311135073</v>
       </c>
       <c r="Q14">
-        <v>446.7802969811069</v>
+        <v>499.7520777057807</v>
       </c>
       <c r="R14">
-        <v>446.7802969811069</v>
+        <v>4497.768699352026</v>
       </c>
       <c r="S14">
-        <v>0.0118189011342747</v>
+        <v>0.0120053824861741</v>
       </c>
       <c r="T14">
-        <v>0.0118189011342747</v>
+        <v>0.0120053824861741</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H15">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I15">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J15">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.2867864209123</v>
+        <v>33.29907966666667</v>
       </c>
       <c r="N15">
-        <v>33.2867864209123</v>
+        <v>99.89723900000001</v>
       </c>
       <c r="O15">
-        <v>0.352860447034833</v>
+        <v>0.3328670078646686</v>
       </c>
       <c r="P15">
-        <v>0.352860447034833</v>
+        <v>0.3328670078646686</v>
       </c>
       <c r="Q15">
-        <v>756.5518362930757</v>
+        <v>830.9185281401075</v>
       </c>
       <c r="R15">
-        <v>756.5518362930757</v>
+        <v>7478.266753260968</v>
       </c>
       <c r="S15">
-        <v>0.02001344154279024</v>
+        <v>0.01996088698813512</v>
       </c>
       <c r="T15">
-        <v>0.02001344154279024</v>
+        <v>0.01996088698813512</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H16">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I16">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J16">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.6562598348387</v>
+        <v>33.93321599999999</v>
       </c>
       <c r="N16">
-        <v>29.6562598348387</v>
+        <v>101.799648</v>
       </c>
       <c r="O16">
-        <v>0.3143746281295587</v>
+        <v>0.3392060138062123</v>
       </c>
       <c r="P16">
-        <v>0.3143746281295587</v>
+        <v>0.3392060138062122</v>
       </c>
       <c r="Q16">
-        <v>674.0361641379764</v>
+        <v>846.7422576247678</v>
       </c>
       <c r="R16">
-        <v>674.0361641379764</v>
+        <v>7620.680318622912</v>
       </c>
       <c r="S16">
-        <v>0.01783061347758891</v>
+        <v>0.02034101532235476</v>
       </c>
       <c r="T16">
-        <v>0.01783061347758891</v>
+        <v>0.02034101532235475</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H17">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I17">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J17">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.7336420724384</v>
+        <v>12.77731666666667</v>
       </c>
       <c r="N17">
-        <v>11.7336420724384</v>
+        <v>38.33195</v>
       </c>
       <c r="O17">
-        <v>0.1243838361166095</v>
+        <v>0.1277256671940461</v>
       </c>
       <c r="P17">
-        <v>0.1243838361166095</v>
+        <v>0.1277256671940461</v>
       </c>
       <c r="Q17">
-        <v>266.6856555047906</v>
+        <v>318.8349126920333</v>
       </c>
       <c r="R17">
-        <v>266.6856555047906</v>
+        <v>2869.5142142283</v>
       </c>
       <c r="S17">
-        <v>0.007054768121239801</v>
+        <v>0.007659267960197039</v>
       </c>
       <c r="T17">
-        <v>0.007054768121239801</v>
+        <v>0.007659267960197036</v>
       </c>
     </row>
   </sheetData>
